--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H2">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I2">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J2">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N2">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O2">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P2">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q2">
-        <v>0.6164798921675</v>
+        <v>314.8118253442415</v>
       </c>
       <c r="R2">
-        <v>2.46591956867</v>
+        <v>1888.870952065449</v>
       </c>
       <c r="S2">
-        <v>0.0002346680971308209</v>
+        <v>0.001135451399696563</v>
       </c>
       <c r="T2">
-        <v>0.0001087667551572524</v>
+        <v>0.0007895273418503916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H3">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I3">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J3">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N3">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O3">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P3">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q3">
-        <v>97.38633600001666</v>
+        <v>12968.37511300436</v>
       </c>
       <c r="R3">
-        <v>584.3180160000999</v>
+        <v>77810.25067802616</v>
       </c>
       <c r="S3">
-        <v>0.03707090279184207</v>
+        <v>0.04677384547975406</v>
       </c>
       <c r="T3">
-        <v>0.02577309308370207</v>
+        <v>0.03252383140275322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H4">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I4">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J4">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N4">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O4">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P4">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q4">
-        <v>2.266868082406666</v>
+        <v>90.32749092548316</v>
       </c>
       <c r="R4">
-        <v>13.60120849444</v>
+        <v>541.9649455528989</v>
       </c>
       <c r="S4">
-        <v>0.0008629018174049857</v>
+        <v>0.0003257897821667534</v>
       </c>
       <c r="T4">
-        <v>0.000599921965401083</v>
+        <v>0.0002265354032632961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.651495</v>
+        <v>567.8317466666666</v>
       </c>
       <c r="H5">
-        <v>57.30298999999999</v>
+        <v>1703.49524</v>
       </c>
       <c r="I5">
-        <v>0.03951472183891054</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J5">
-        <v>0.02741774509604874</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N5">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O5">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P5">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q5">
-        <v>3.536635487318333</v>
+        <v>3896.221252797826</v>
       </c>
       <c r="R5">
-        <v>21.21981292391</v>
+        <v>35065.99127518044</v>
       </c>
       <c r="S5">
-        <v>0.001346249132532664</v>
+        <v>0.01405274363559644</v>
       </c>
       <c r="T5">
-        <v>0.000935963291788325</v>
+        <v>0.01465719976823644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1703.49524</v>
       </c>
       <c r="I6">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J6">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N6">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O6">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P6">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q6">
-        <v>12.21775177715333</v>
+        <v>160501.1459601012</v>
       </c>
       <c r="R6">
-        <v>73.30651066292</v>
+        <v>1444510.313640911</v>
       </c>
       <c r="S6">
-        <v>0.00465078682563465</v>
+        <v>0.5788894703495383</v>
       </c>
       <c r="T6">
-        <v>0.003233402823842612</v>
+        <v>0.6037894684956047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>1703.49524</v>
       </c>
       <c r="I7">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J7">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N7">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O7">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P7">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q7">
-        <v>1930.058214147511</v>
+        <v>1117.924618844715</v>
       </c>
       <c r="R7">
-        <v>17370.5239273276</v>
+        <v>10061.32156960244</v>
       </c>
       <c r="S7">
-        <v>0.7346923950321577</v>
+        <v>0.004032088285865586</v>
       </c>
       <c r="T7">
-        <v>0.7661788920292538</v>
+        <v>0.004205522068971378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>567.8317466666666</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H8">
-        <v>1703.49524</v>
+        <v>174.898274</v>
       </c>
       <c r="I8">
-        <v>0.7831254013389546</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J8">
-        <v>0.8150708761035396</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07911866666666666</v>
+        <v>6.861577</v>
       </c>
       <c r="N8">
-        <v>0.237356</v>
+        <v>20.584731</v>
       </c>
       <c r="O8">
-        <v>0.02183747669850171</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P8">
-        <v>0.02188079155668931</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q8">
-        <v>44.9260906872711</v>
+        <v>400.0259914060326</v>
       </c>
       <c r="R8">
-        <v>404.33481618544</v>
+        <v>3600.233922654294</v>
       </c>
       <c r="S8">
-        <v>0.01710148270374422</v>
+        <v>0.001442798634899797</v>
       </c>
       <c r="T8">
-        <v>0.01783439594394969</v>
+        <v>0.001504858294254906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>567.8317466666666</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H9">
-        <v>1703.49524</v>
+        <v>174.898274</v>
       </c>
       <c r="I9">
-        <v>0.7831254013389546</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J9">
-        <v>0.8150708761035396</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1234363333333333</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N9">
-        <v>0.370309</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O9">
-        <v>0.03406955863237277</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P9">
-        <v>0.03413713595007526</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q9">
-        <v>70.09106875879554</v>
+        <v>16478.69201175096</v>
       </c>
       <c r="R9">
-        <v>630.8196188291599</v>
+        <v>148308.2281057586</v>
       </c>
       <c r="S9">
-        <v>0.02668073677741797</v>
+        <v>0.05943472386861992</v>
       </c>
       <c r="T9">
-        <v>0.02782418530649348</v>
+        <v>0.06199121278393395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.62632533333333</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H10">
-        <v>121.878976</v>
+        <v>174.898274</v>
       </c>
       <c r="I10">
-        <v>0.05602981432151277</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J10">
-        <v>0.05831539849029591</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0215165</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N10">
-        <v>0.043033</v>
+        <v>5.906281</v>
       </c>
       <c r="O10">
-        <v>0.005938751083393454</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P10">
-        <v>0.00396702043790345</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q10">
-        <v>0.8741363290346668</v>
+        <v>114.7775947398882</v>
       </c>
       <c r="R10">
-        <v>5.244817974208</v>
+        <v>1032.998352658994</v>
       </c>
       <c r="S10">
-        <v>0.000332747120504218</v>
+        <v>0.0004139754930066664</v>
       </c>
       <c r="T10">
-        <v>0.0002313383776554879</v>
+        <v>0.0004317819820453405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.62632533333333</v>
+        <v>71.7986375</v>
       </c>
       <c r="H11">
-        <v>121.878976</v>
+        <v>143.597275</v>
       </c>
       <c r="I11">
-        <v>0.05602981432151277</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J11">
-        <v>0.05831539849029591</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3.398996666666667</v>
+        <v>6.861577</v>
       </c>
       <c r="N11">
-        <v>10.19699</v>
+        <v>20.584731</v>
       </c>
       <c r="O11">
-        <v>0.938154213585732</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P11">
-        <v>0.940015052055332</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q11">
-        <v>138.0887443869156</v>
+        <v>492.6518797013375</v>
       </c>
       <c r="R11">
-        <v>1242.79869948224</v>
+        <v>2955.911278208025</v>
       </c>
       <c r="S11">
-        <v>0.05256460639215339</v>
+        <v>0.001776878189878513</v>
       </c>
       <c r="T11">
-        <v>0.05481735234748294</v>
+        <v>0.001235538495457952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.62632533333333</v>
+        <v>71.7986375</v>
       </c>
       <c r="H12">
-        <v>121.878976</v>
+        <v>143.597275</v>
       </c>
       <c r="I12">
-        <v>0.05602981432151277</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J12">
-        <v>0.05831539849029591</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07911866666666666</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N12">
-        <v>0.237356</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O12">
-        <v>0.02183747669850171</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P12">
-        <v>0.02188079155668931</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q12">
-        <v>3.214300691939555</v>
+        <v>20294.32779123686</v>
       </c>
       <c r="R12">
-        <v>28.928706227456</v>
+        <v>121765.9667474211</v>
       </c>
       <c r="S12">
-        <v>0.001223549764667412</v>
+        <v>0.07319681486317538</v>
       </c>
       <c r="T12">
-        <v>0.00127598707891144</v>
+        <v>0.0508968386372874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.62632533333333</v>
+        <v>71.7986375</v>
       </c>
       <c r="H13">
-        <v>121.878976</v>
+        <v>143.597275</v>
       </c>
       <c r="I13">
-        <v>0.05602981432151277</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J13">
-        <v>0.05831539849029591</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1234363333333333</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N13">
-        <v>0.370309</v>
+        <v>5.906281</v>
       </c>
       <c r="O13">
-        <v>0.03406955863237277</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P13">
-        <v>0.03413713595007526</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q13">
-        <v>5.014764635953778</v>
+        <v>141.3543094973791</v>
       </c>
       <c r="R13">
-        <v>45.132881723584</v>
+        <v>848.1258569842749</v>
       </c>
       <c r="S13">
-        <v>0.001908911044187739</v>
+        <v>0.0005098313838637898</v>
       </c>
       <c r="T13">
-        <v>0.001990720686246045</v>
+        <v>0.0003545073064346525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.6042365</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H14">
-        <v>113.208473</v>
+        <v>443.365777</v>
       </c>
       <c r="I14">
-        <v>0.07806575748321012</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J14">
-        <v>0.05416682542092334</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N14">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O14">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P14">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q14">
-        <v>1.21792505465225</v>
+        <v>1014.062806016776</v>
       </c>
       <c r="R14">
-        <v>4.871700218609</v>
+        <v>9126.565254150986</v>
       </c>
       <c r="S14">
-        <v>0.0004636131018293447</v>
+        <v>0.003657483422717414</v>
       </c>
       <c r="T14">
-        <v>0.0002148809035011511</v>
+        <v>0.003814804181013366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.6042365</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H15">
-        <v>113.208473</v>
+        <v>443.365777</v>
       </c>
       <c r="I15">
-        <v>0.07806575748321012</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J15">
-        <v>0.05416682542092334</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N15">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O15">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P15">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q15">
-        <v>192.3976111827117</v>
+        <v>41773.35728157991</v>
       </c>
       <c r="R15">
-        <v>1154.38566709627</v>
+        <v>375960.2155342191</v>
       </c>
       <c r="S15">
-        <v>0.07323771931963546</v>
+        <v>0.1506665670628123</v>
       </c>
       <c r="T15">
-        <v>0.05091763121772133</v>
+        <v>0.1571472467654038</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.6042365</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H16">
-        <v>113.208473</v>
+        <v>443.365777</v>
       </c>
       <c r="I16">
-        <v>0.07806575748321012</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J16">
-        <v>0.05416682542092334</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N16">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O16">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P16">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q16">
-        <v>4.478451719564666</v>
+        <v>290.9603183050374</v>
       </c>
       <c r="R16">
-        <v>26.870710317388</v>
+        <v>2618.642864745337</v>
       </c>
       <c r="S16">
-        <v>0.001704759159990487</v>
+        <v>0.001049424685093569</v>
       </c>
       <c r="T16">
-        <v>0.001185213016322803</v>
+        <v>0.001094563997607732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,70 +1464,70 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.6042365</v>
+        <v>59.584107</v>
       </c>
       <c r="H17">
-        <v>113.208473</v>
+        <v>178.752321</v>
       </c>
       <c r="I17">
-        <v>0.07806575748321012</v>
+        <v>0.06264211346331491</v>
       </c>
       <c r="J17">
-        <v>0.05416682542092334</v>
+        <v>0.06533656307588157</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N17">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O17">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P17">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q17">
-        <v>6.987019404692833</v>
+        <v>408.840938156739</v>
       </c>
       <c r="R17">
-        <v>41.922116428157</v>
+        <v>3679.568443410651</v>
       </c>
       <c r="S17">
-        <v>0.002659665901754821</v>
+        <v>0.001474592051857358</v>
       </c>
       <c r="T17">
-        <v>0.001849100283378053</v>
+        <v>0.001538019253833034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.228297</v>
+        <v>59.584107</v>
       </c>
       <c r="H18">
-        <v>54.68489099999999</v>
+        <v>178.752321</v>
       </c>
       <c r="I18">
-        <v>0.02513956376629029</v>
+        <v>0.06264211346331491</v>
       </c>
       <c r="J18">
-        <v>0.0261650640227187</v>
+        <v>0.06533656307588157</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N18">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O18">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P18">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q18">
-        <v>0.3922091524005</v>
+        <v>16841.81539804471</v>
       </c>
       <c r="R18">
-        <v>2.353254914403</v>
+        <v>151576.3385824024</v>
       </c>
       <c r="S18">
-        <v>0.0001492976115530953</v>
+        <v>0.06074442358138943</v>
       </c>
       <c r="T18">
-        <v>0.0001037973437371774</v>
+        <v>0.06335724712030644</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.228297</v>
+        <v>59.584107</v>
       </c>
       <c r="H19">
-        <v>54.68489099999999</v>
+        <v>178.752321</v>
       </c>
       <c r="I19">
-        <v>0.02513956376629029</v>
+        <v>0.06264211346331491</v>
       </c>
       <c r="J19">
-        <v>0.0261650640227187</v>
+        <v>0.06533656307588157</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N19">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O19">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P19">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q19">
-        <v>61.95792074200999</v>
+        <v>117.306826358689</v>
       </c>
       <c r="R19">
-        <v>557.6212866780899</v>
+        <v>1055.761437228201</v>
       </c>
       <c r="S19">
-        <v>0.02358478767505243</v>
+        <v>0.000423097830068128</v>
       </c>
       <c r="T19">
-        <v>0.02459555401934702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>18.228297</v>
-      </c>
-      <c r="H20">
-        <v>54.68489099999999</v>
-      </c>
-      <c r="I20">
-        <v>0.02513956376629029</v>
-      </c>
-      <c r="J20">
-        <v>0.0261650640227187</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237356</v>
-      </c>
-      <c r="O20">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P20">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q20">
-        <v>1.442198554244</v>
-      </c>
-      <c r="R20">
-        <v>12.979786988196</v>
-      </c>
-      <c r="S20">
-        <v>0.0005489846379568622</v>
-      </c>
-      <c r="T20">
-        <v>0.0005725123119485387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>18.228297</v>
-      </c>
-      <c r="H21">
-        <v>54.68489099999999</v>
-      </c>
-      <c r="I21">
-        <v>0.02513956376629029</v>
-      </c>
-      <c r="J21">
-        <v>0.0261650640227187</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.370309</v>
-      </c>
-      <c r="O21">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P21">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q21">
-        <v>2.250034144590999</v>
-      </c>
-      <c r="R21">
-        <v>20.250307301319</v>
-      </c>
-      <c r="S21">
-        <v>0.0008564938417279012</v>
-      </c>
-      <c r="T21">
-        <v>0.0008932003476859715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>13.141961</v>
-      </c>
-      <c r="H22">
-        <v>39.425883</v>
-      </c>
-      <c r="I22">
-        <v>0.01812474125112182</v>
-      </c>
-      <c r="J22">
-        <v>0.01886409086647383</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.0215165</v>
-      </c>
-      <c r="N22">
-        <v>0.043033</v>
-      </c>
-      <c r="O22">
-        <v>0.005938751083393454</v>
-      </c>
-      <c r="P22">
-        <v>0.00396702043790345</v>
-      </c>
-      <c r="Q22">
-        <v>0.2827690038565</v>
-      </c>
-      <c r="R22">
-        <v>1.696614023139</v>
-      </c>
-      <c r="S22">
-        <v>0.0001076383267413258</v>
-      </c>
-      <c r="T22">
-        <v>7.48342340097695E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>13.141961</v>
-      </c>
-      <c r="H23">
-        <v>39.425883</v>
-      </c>
-      <c r="I23">
-        <v>0.01812474125112182</v>
-      </c>
-      <c r="J23">
-        <v>0.01886409086647383</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>3.398996666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.19699</v>
-      </c>
-      <c r="O23">
-        <v>0.938154213585732</v>
-      </c>
-      <c r="P23">
-        <v>0.940015052055332</v>
-      </c>
-      <c r="Q23">
-        <v>44.66948163246333</v>
-      </c>
-      <c r="R23">
-        <v>402.02533469217</v>
-      </c>
-      <c r="S23">
-        <v>0.01700380237489107</v>
-      </c>
-      <c r="T23">
-        <v>0.01773252935782491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>13.141961</v>
-      </c>
-      <c r="H24">
-        <v>39.425883</v>
-      </c>
-      <c r="I24">
-        <v>0.01812474125112182</v>
-      </c>
-      <c r="J24">
-        <v>0.01886409086647383</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.237356</v>
-      </c>
-      <c r="O24">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P24">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q24">
-        <v>1.039774431705333</v>
-      </c>
-      <c r="R24">
-        <v>9.357969885347998</v>
-      </c>
-      <c r="S24">
-        <v>0.0003957986147377456</v>
-      </c>
-      <c r="T24">
-        <v>0.0004127612401557606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>13.141961</v>
-      </c>
-      <c r="H25">
-        <v>39.425883</v>
-      </c>
-      <c r="I25">
-        <v>0.01812474125112182</v>
-      </c>
-      <c r="J25">
-        <v>0.01886409086647383</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.370309</v>
-      </c>
-      <c r="O25">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P25">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q25">
-        <v>1.622195478649667</v>
-      </c>
-      <c r="R25">
-        <v>14.599759307847</v>
-      </c>
-      <c r="S25">
-        <v>0.0006175019347516805</v>
-      </c>
-      <c r="T25">
-        <v>0.0006439660344833901</v>
+        <v>0.0004412967017420935</v>
       </c>
     </row>
   </sheetData>
